--- a/library/Tabelas_Sondagem_SMIT_CRAO.xlsx
+++ b/library/Tabelas_Sondagem_SMIT_CRAO.xlsx
@@ -767,11 +767,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>18</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1025,11 +1029,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>42</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1283,11 +1291,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>29</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1517,11 +1529,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>9</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1951,11 +1967,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>9</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2385,11 +2405,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2619,11 +2643,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>33</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2885,11 +2913,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>2</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3111,11 +3143,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>42</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3353,11 +3389,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3699,11 +3739,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>27</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3925,11 +3969,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -4479,11 +4527,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -4737,11 +4789,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>2</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -5011,11 +5067,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>159</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -5317,11 +5377,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>159</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -5623,11 +5687,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Sondagem (mm)</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Volume (litros)</t>
+        </is>
       </c>
     </row>
     <row r="7">
